--- a/biology/Biochimie/Ubiquiline_2/Ubiquiline_2.xlsx
+++ b/biology/Biochimie/Ubiquiline_2/Ubiquiline_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L' ubiquiline 2 est une protéine encodée chez l'être humain par le gène UBQLN2[1],[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L' ubiquiline 2 est une protéine encodée chez l'être humain par le gène UBQLN2,
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette protéine de la famille des  ubiquitines partage un haut degré de similitude avec des protéines apparentées chez la levure, le rat et la grenouille. L'ubiquiline contient un domaine N-terminal semblable à celui de l'ubiquitine et un domaine C-terminal associé à l'ubiquitine. Les deux protéines sont physiquement liées à la fois avec des protéasomes et avec des ubiquitine-ligases, et  sont ainsi supposées lier fonctionnellement la machinerie d'ubiquitination au protéasome pour réaliser in vivo la dégradation des protéines. Il a été aussi démontré que l'ubiquiline lie le domaine ATPase de la protéine Hsp70-like STCH[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette protéine de la famille des  ubiquitines partage un haut degré de similitude avec des protéines apparentées chez la levure, le rat et la grenouille. L'ubiquiline contient un domaine N-terminal semblable à celui de l'ubiquitine et un domaine C-terminal associé à l'ubiquitine. Les deux protéines sont physiquement liées à la fois avec des protéasomes et avec des ubiquitine-ligases, et  sont ainsi supposées lier fonctionnellement la machinerie d'ubiquitination au protéasome pour réaliser in vivo la dégradation des protéines. Il a été aussi démontré que l'ubiquiline lie le domaine ATPase de la protéine Hsp70-like STCH.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Rôle en clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans une faible proportion de SLA familiales (fALS), on trouve une mutation du gène UBQLN2, qui aboutit à une enzyme ubiquiline 2 non fonctionnelle. Ceci provoque  l'accumulation de protéines ubiquitinées dans les motoneurones spinaux et cortico-spinaux, normalement dégradées par l'ubiquiline 2[3]. La même accumulation a lieu chez des patients n'ayant pas la mutation du gène UBQLN2, mais des mutations d'autres gènes comme TDP-43 et C9ORF72.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une faible proportion de SLA familiales (fALS), on trouve une mutation du gène UBQLN2, qui aboutit à une enzyme ubiquiline 2 non fonctionnelle. Ceci provoque  l'accumulation de protéines ubiquitinées dans les motoneurones spinaux et cortico-spinaux, normalement dégradées par l'ubiquiline 2. La même accumulation a lieu chez des patients n'ayant pas la mutation du gène UBQLN2, mais des mutations d'autres gènes comme TDP-43 et C9ORF72.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Interactions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UBQLN2  interagit avec les protéines HERPUD1[4] et UBE3A[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UBQLN2  interagit avec les protéines HERPUD1 et UBE3A.
 </t>
         </is>
       </c>
